--- a/data/trans_orig/CONS_CAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_CAT-Clase-trans_orig.xlsx
@@ -7741,12 +7741,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7756,12 +7756,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -7854,12 +7854,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8242</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_CAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_CAT-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en País Vasco</t>
+          <t>Consumo de medicamentos para el catarro en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en Andalucia</t>
+          <t>Consumo de medicamentos para el catarro en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en C.Valenciana</t>
+          <t>Consumo de medicamentos para el catarro en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_CAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_CAT-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2109</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>6832</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>5314</t>
+          <t>7761</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3837</t>
+          <t>5429</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>7341</t>
+          <t>10990</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>3,32%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>142817</t>
+          <t>159066</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>141131</t>
+          <t>156823</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>143959</t>
+          <t>160692</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>140570</t>
+          <t>164541</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>139180</t>
+          <t>161735</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>141487</t>
+          <t>166031</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>283387</t>
+          <t>323607</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>281360</t>
+          <t>320378</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>284864</t>
+          <t>325939</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,36%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>1595</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>781</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>3362</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>2359</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2419</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1725</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>4644</t>
+          <t>5958</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>79784</t>
+          <t>88830</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>78330</t>
+          <t>87063</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80565</t>
+          <t>89644</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>107693</t>
+          <t>120309</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>106698</t>
+          <t>118191</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>108426</t>
+          <t>121468</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>187477</t>
+          <t>209139</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>185645</t>
+          <t>207135</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>188564</t>
+          <t>210775</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>98,91%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3641</t>
+          <t>3585</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2170</t>
+          <t>2261</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5729</t>
+          <t>5468</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3277</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1788</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5294</t>
+          <t>4500</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6918</t>
+          <t>6218</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4890</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9793</t>
+          <t>8770</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>150299</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>158127</t>
+          <t>148416</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>161686</t>
+          <t>151623</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59868</t>
+          <t>58984</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57851</t>
+          <t>57117</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>61357</t>
+          <t>60232</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>220083</t>
+          <t>209283</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>217208</t>
+          <t>206731</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>222111</t>
+          <t>211025</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>97,92%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>1555</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3905</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5343</t>
+          <t>6609</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3778</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7519</t>
+          <t>9171</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>7730</t>
+          <t>9203</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>5653</t>
+          <t>6884</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>9928</t>
+          <t>12429</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>167702</t>
+          <t>167125</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>166184</t>
+          <t>165567</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>168697</t>
+          <t>168164</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>171840</t>
+          <t>175581</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>169664</t>
+          <t>173019</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>173405</t>
+          <t>177589</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>339541</t>
+          <t>342706</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>337343</t>
+          <t>339480</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>341618</t>
+          <t>345025</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>98,04%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>736</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>3073</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>3146</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1875</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4721</t>
+          <t>4926</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>4723</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>3172</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>6880</t>
+          <t>6840</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75260</t>
+          <t>72874</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>73775</t>
+          <t>71378</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>76058</t>
+          <t>73715</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>129923</t>
+          <t>122270</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>120490</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>131057</t>
+          <t>123513</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>205184</t>
+          <t>195144</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>202903</t>
+          <t>193027</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>206656</t>
+          <t>196695</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>98,41%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>979</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>259</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>2388</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3405</t>
+          <t>4741</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2076</t>
+          <t>3245</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5360</t>
+          <t>7076</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4250</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>2804</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>6554</t>
+          <t>8100</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44416</t>
+          <t>54624</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43214</t>
+          <t>53215</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45034</t>
+          <t>55344</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>114872</t>
+          <t>117860</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>112917</t>
+          <t>115525</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>116201</t>
+          <t>119356</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>159288</t>
+          <t>172484</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>156984</t>
+          <t>170104</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>160734</t>
+          <t>174546</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>95,45%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>97,95%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>12844</t>
+          <t>14065</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9937</t>
+          <t>11271</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15891</t>
+          <t>17682</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>18779</t>
+          <t>23514</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>15464</t>
+          <t>19610</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>22604</t>
+          <t>28635</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>31623</t>
+          <t>37578</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>27344</t>
+          <t>32715</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>36793</t>
+          <t>43415</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>670195</t>
+          <t>692818</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>667148</t>
+          <t>689201</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>673102</t>
+          <t>695612</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>724765</t>
+          <t>759545</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>720940</t>
+          <t>754424</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>728080</t>
+          <t>763449</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1394960</t>
+          <t>1452363</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1389790</t>
+          <t>1446526</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1399239</t>
+          <t>1457226</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>97,8%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13750</t>
+          <t>13886</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36044</t>
+          <t>34246</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13793</t>
+          <t>13964</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>28913</t>
+          <t>28166</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>32633</t>
+          <t>30607</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>59413</t>
+          <t>57355</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>8,62%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>330639</t>
+          <t>332437</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>352933</t>
+          <t>352797</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>269988</t>
+          <t>270735</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>285108</t>
+          <t>284937</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>606171</t>
+          <t>608229</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>632951</t>
+          <t>634977</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>95,4%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18738</t>
+          <t>18677</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41859</t>
+          <t>40565</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9257</t>
+          <t>9266</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21172</t>
+          <t>21906</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>32103</t>
+          <t>31869</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>57752</t>
+          <t>58826</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>10,08%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>282188</t>
+          <t>283482</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>305309</t>
+          <t>305370</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>238127</t>
+          <t>237393</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>250042</t>
+          <t>250033</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>525595</t>
+          <t>524521</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>551244</t>
+          <t>551478</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>94,54%</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4449</t>
+          <t>5907</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51677</t>
+          <t>50035</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7347</t>
+          <t>7442</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16594</t>
+          <t>17817</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9103</t>
+          <t>10686</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>64005</t>
+          <t>63536</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,09%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>423747</t>
+          <t>425389</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>470975</t>
+          <t>469517</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>89,48%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>80970</t>
+          <t>79747</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90217</t>
+          <t>90122</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>81,74%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>508983</t>
+          <t>509452</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>563885</t>
+          <t>562302</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>88,91%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,13%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33790</t>
+          <t>32475</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67261</t>
+          <t>65585</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11612</t>
+          <t>11269</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>49627</t>
+          <t>50482</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>45516</t>
+          <t>42180</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>104694</t>
+          <t>103134</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>8,8%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>468894</t>
+          <t>470570</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>502365</t>
+          <t>503680</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>586681</t>
+          <t>585826</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>624696</t>
+          <t>625039</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1067768</t>
+          <t>1069328</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1126946</t>
+          <t>1130282</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>96,4%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9502</t>
+          <t>9245</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27790</t>
+          <t>26365</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>24510</t>
+          <t>25121</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>58504</t>
+          <t>57528</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>40235</t>
+          <t>40322</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>76708</t>
+          <t>77068</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>12,13%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>183432</t>
+          <t>184857</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>201720</t>
+          <t>201977</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,84%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>365445</t>
+          <t>366421</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>399439</t>
+          <t>398828</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>86,2%</t>
+          <t>86,43%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>558463</t>
+          <t>558103</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>594936</t>
+          <t>594849</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>87,87%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>93,65%</t>
         </is>
       </c>
     </row>
@@ -5098,12 +5098,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>941</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15363</t>
+          <t>13627</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5113,12 +5113,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>27736</t>
+          <t>28114</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>54305</t>
+          <t>51748</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>29955</t>
+          <t>30353</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>56034</t>
+          <t>56759</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>151398</t>
+          <t>153134</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>165954</t>
+          <t>165820</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>99,44%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>435663</t>
+          <t>438220</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>462232</t>
+          <t>461854</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>89,44%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>600695</t>
+          <t>599970</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>626774</t>
+          <t>626376</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>95,38%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>94857</t>
+          <t>88546</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>175878</t>
+          <t>169553</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>111845</t>
+          <t>112778</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>186564</t>
+          <t>187850</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>235898</t>
+          <t>231075</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>342537</t>
+          <t>344047</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>8,03%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1904414</t>
+          <t>1910739</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1985435</t>
+          <t>1991746</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2019426</t>
+          <t>2018140</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2094145</t>
+          <t>2093212</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3943745</t>
+          <t>3942235</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4050384</t>
+          <t>4055207</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,01%</t>
+          <t>91,97%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>94,61%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_CAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_CAT-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el catarro en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3735</t>
+          <t>22749</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2109</t>
+          <t>13916</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5978</t>
+          <t>35120</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4026</t>
+          <t>20877</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>14732</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6832</t>
+          <t>28492</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>7761</t>
+          <t>43626</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5429</t>
+          <t>31603</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>10990</t>
+          <t>59047</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>8,17%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>159066</t>
+          <t>372638</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>156823</t>
+          <t>360267</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>160692</t>
+          <t>381471</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>422</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>164541</t>
+          <t>306749</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>161735</t>
+          <t>299134</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>166031</t>
+          <t>312894</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,5%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>802</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>323607</t>
+          <t>679387</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>320378</t>
+          <t>663966</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>325939</t>
+          <t>691410</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>95,63%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>29755</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>20484</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3362</t>
+          <t>43678</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2359</t>
+          <t>15299</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>9719</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4477</t>
+          <t>22961</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3954</t>
+          <t>45054</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>33687</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>5958</t>
+          <t>61923</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>9,82%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>306</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88830</t>
+          <t>314592</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87063</t>
+          <t>300669</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89644</t>
+          <t>323863</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>87,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>120309</t>
+          <t>270876</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>118191</t>
+          <t>263214</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>121468</t>
+          <t>276456</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1147</t>
+          <t>675</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>209139</t>
+          <t>585468</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>207135</t>
+          <t>568599</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>210775</t>
+          <t>596835</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>90,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>94,66%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>392</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286175</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286175</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286175</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>726</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>630522</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>630522</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>630522</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,102 +1421,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>22578</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2261</t>
+          <t>14577</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5468</t>
+          <t>33548</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>13402</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1385</t>
+          <t>8684</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4500</t>
+          <t>20164</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6218</t>
+          <t>35980</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4476</t>
+          <t>25745</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8770</t>
+          <t>49413</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>13,28%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>150299</t>
+          <t>237978</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>148416</t>
+          <t>227008</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>151623</t>
+          <t>245979</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>91,33%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58984</t>
+          <t>98084</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57117</t>
+          <t>91322</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>60232</t>
+          <t>102802</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>87,98%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>379</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>209283</t>
+          <t>336063</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>206731</t>
+          <t>322630</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>211025</t>
+          <t>346298</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>93,08%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2594</t>
+          <t>55269</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>41540</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4152</t>
+          <t>75254</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6609</t>
+          <t>34044</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4601</t>
+          <t>25638</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9171</t>
+          <t>44763</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>9203</t>
+          <t>89313</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>6884</t>
+          <t>71678</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>12429</t>
+          <t>110833</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>10,08%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>167125</t>
+          <t>554713</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>165567</t>
+          <t>534728</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>168164</t>
+          <t>568442</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>621</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>175581</t>
+          <t>455778</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>173019</t>
+          <t>445059</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>177589</t>
+          <t>464184</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>93,05%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>342706</t>
+          <t>1010490</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>339480</t>
+          <t>988970</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>345025</t>
+          <t>1028125</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>93,48%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>669</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>18333</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>10307</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3073</t>
+          <t>28682</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3146</t>
+          <t>51596</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>40935</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4926</t>
+          <t>64690</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>4723</t>
+          <t>69930</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3172</t>
+          <t>56373</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>6840</t>
+          <t>88760</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>13,42%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72874</t>
+          <t>235008</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>71378</t>
+          <t>224659</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73715</t>
+          <t>243034</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>516</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>122270</t>
+          <t>356423</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>120490</t>
+          <t>343329</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>123513</t>
+          <t>367084</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>84,15%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>732</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>195144</t>
+          <t>591431</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>193027</t>
+          <t>572601</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>196695</t>
+          <t>604988</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>91,48%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>7080</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>2338</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2388</t>
+          <t>18300</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4741</t>
+          <t>41128</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3245</t>
+          <t>30883</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7076</t>
+          <t>56168</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>5720</t>
+          <t>48208</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>3658</t>
+          <t>36752</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>8100</t>
+          <t>66438</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>9,27%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>54624</t>
+          <t>162417</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53215</t>
+          <t>151197</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55344</t>
+          <t>167159</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>89,2%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>98,62%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>645</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>117860</t>
+          <t>505746</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>115525</t>
+          <t>490706</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>119356</t>
+          <t>515991</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>718</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>172484</t>
+          <t>668163</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>170104</t>
+          <t>649933</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>174546</t>
+          <t>679619</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>94,87%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14065</t>
+          <t>155765</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11271</t>
+          <t>127898</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17682</t>
+          <t>184463</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>23514</t>
+          <t>176347</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>19610</t>
+          <t>154622</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>28635</t>
+          <t>201577</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>386</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>37578</t>
+          <t>332112</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>32715</t>
+          <t>295471</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>43415</t>
+          <t>370296</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>8,81%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3911</t>
+          <t>1730</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>692818</t>
+          <t>1877345</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>689201</t>
+          <t>1848647</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>695612</t>
+          <t>1905212</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4271</t>
+          <t>2713</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>759545</t>
+          <t>1993656</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>754424</t>
+          <t>1968426</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>763449</t>
+          <t>2015381</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>8182</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1452363</t>
+          <t>3871001</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1446526</t>
+          <t>3832817</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1457226</t>
+          <t>3907642</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>92,97%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2962</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170003</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170003</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170003</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4829</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203113</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203113</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203113</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos para el catarro en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22309</t>
+          <t>8154</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13886</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34246</t>
+          <t>13879</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20024</t>
+          <t>6069</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13964</t>
+          <t>3132</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>28166</t>
+          <t>10804</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>42333</t>
+          <t>14223</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>30607</t>
+          <t>9223</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>57355</t>
+          <t>20943</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>502</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>344374</t>
+          <t>287369</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>332437</t>
+          <t>281644</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>352797</t>
+          <t>290921</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>458</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>278877</t>
+          <t>270631</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>270735</t>
+          <t>265896</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>284937</t>
+          <t>273568</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>960</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>623251</t>
+          <t>557999</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>608229</t>
+          <t>551279</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>634977</t>
+          <t>562999</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>98,39%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27964</t>
+          <t>8016</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18677</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40565</t>
+          <t>12799</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14642</t>
+          <t>7938</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9266</t>
+          <t>4518</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21906</t>
+          <t>13278</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>42607</t>
+          <t>15954</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>31869</t>
+          <t>11028</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>58826</t>
+          <t>22867</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>296083</t>
+          <t>187756</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>283482</t>
+          <t>182973</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>305370</t>
+          <t>191153</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>379</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>244657</t>
+          <t>224041</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>237393</t>
+          <t>218701</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>250033</t>
+          <t>227461</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>711</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>540740</t>
+          <t>411796</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>524521</t>
+          <t>404883</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>551478</t>
+          <t>416722</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>97,42%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>259299</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>259299</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>259299</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>583347</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>583347</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>583347</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,107 +4059,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21435</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5907</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50035</t>
+          <t>6582</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11398</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7442</t>
+          <t>753</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17817</t>
+          <t>5270</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>32833</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10686</t>
+          <t>2876</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>63536</t>
+          <t>9306</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>453989</t>
+          <t>177644</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>425389</t>
+          <t>174289</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>469517</t>
+          <t>179612</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>153</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86166</t>
+          <t>80758</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>79747</t>
+          <t>77530</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90122</t>
+          <t>82047</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>492</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>540155</t>
+          <t>258403</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>509452</t>
+          <t>254366</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>562302</t>
+          <t>260796</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>88,91%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>98,91%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,107 +4402,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46667</t>
+          <t>7338</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32475</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65585</t>
+          <t>13497</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31107</t>
+          <t>11905</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11269</t>
+          <t>7313</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50482</t>
+          <t>19361</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>77774</t>
+          <t>19243</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>42180</t>
+          <t>13322</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>103134</t>
+          <t>27682</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>564</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>489488</t>
+          <t>301095</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>470570</t>
+          <t>294936</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>503680</t>
+          <t>304429</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,77%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>537</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>605201</t>
+          <t>304058</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>585826</t>
+          <t>296602</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>625039</t>
+          <t>308650</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1094688</t>
+          <t>605153</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1069328</t>
+          <t>596714</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1130282</t>
+          <t>611074</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>97,87%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16481</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9245</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26365</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>43303</t>
+          <t>4541</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>25121</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>57528</t>
+          <t>9747</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>7942</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>40322</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>77068</t>
+          <t>13811</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>254</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>194741</t>
+          <t>146885</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>184857</t>
+          <t>142232</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>201977</t>
+          <t>149026</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>99,16%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>260</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>380646</t>
+          <t>150527</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>366421</t>
+          <t>145321</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>398828</t>
+          <t>153132</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,07%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>514</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>575387</t>
+          <t>297412</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>558103</t>
+          <t>291543</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>594849</t>
+          <t>301109</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,87%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>98,61%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4031</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13627</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37168</t>
+          <t>1464</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>28114</t>
+          <t>200</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>51748</t>
+          <t>4411</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>41200</t>
+          <t>1464</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>30353</t>
+          <t>200</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>56759</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>21,39%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>162730</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>153134</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>165820</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>452800</t>
+          <t>9970</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>438220</t>
+          <t>7023</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>461854</t>
+          <t>11234</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>87,2%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,44%</t>
+          <t>61,42%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>615529</t>
+          <t>19318</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>599970</t>
+          <t>16337</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>626376</t>
+          <t>20582</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>78,61%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>99,04%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>138887</t>
+          <t>30134</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>88546</t>
+          <t>22526</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>169553</t>
+          <t>39495</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>157644</t>
+          <t>33960</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>112778</t>
+          <t>26100</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>187850</t>
+          <t>45104</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>116</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>296531</t>
+          <t>64095</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>231075</t>
+          <t>52828</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>344047</t>
+          <t>77027</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>3,48%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1941405</t>
+          <t>1110097</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1910739</t>
+          <t>1100736</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1991746</t>
+          <t>1117705</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2713</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2048346</t>
+          <t>1039985</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2018140</t>
+          <t>1028841</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2093212</t>
+          <t>1047845</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>3989751</t>
+          <t>2150081</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3942235</t>
+          <t>2137149</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4055207</t>
+          <t>2161348</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>97,61%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2205990</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2205990</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2205990</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4286282</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4286282</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4286282</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para el catarro en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8154</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4602</t>
+          <t>2109</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13879</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6069</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3132</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10804</t>
+          <t>6832</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>39</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>14223</t>
+          <t>7761</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>9223</t>
+          <t>5429</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>20943</t>
+          <t>10990</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,32%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>835</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>287369</t>
+          <t>159066</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>281644</t>
+          <t>156823</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>290921</t>
+          <t>160692</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>270631</t>
+          <t>164541</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>265896</t>
+          <t>161735</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>273568</t>
+          <t>166031</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>557999</t>
+          <t>323607</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>551279</t>
+          <t>320378</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>562999</t>
+          <t>325939</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>98,36%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8016</t>
+          <t>1595</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>781</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12799</t>
+          <t>3362</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7938</t>
+          <t>2359</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4518</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13278</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>15954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>11028</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>22867</t>
+          <t>5958</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>187756</t>
+          <t>88830</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>182973</t>
+          <t>87063</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>191153</t>
+          <t>89644</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>662</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>224041</t>
+          <t>120309</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>218701</t>
+          <t>118191</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>227461</t>
+          <t>121468</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>1147</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>411796</t>
+          <t>209139</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>404883</t>
+          <t>207135</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>416722</t>
+          <t>210775</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>98,91%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3227</t>
+          <t>3585</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>2261</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6582</t>
+          <t>5468</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5270</t>
+          <t>4500</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>6218</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2876</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9306</t>
+          <t>8770</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>900</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>177644</t>
+          <t>150299</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>174289</t>
+          <t>148416</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>179612</t>
+          <t>151623</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>352</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80758</t>
+          <t>58984</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>77530</t>
+          <t>57117</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>82047</t>
+          <t>60232</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>258403</t>
+          <t>209283</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>254366</t>
+          <t>206731</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>260796</t>
+          <t>211025</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>97,92%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7338</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4004</t>
+          <t>1555</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13497</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11905</t>
+          <t>6609</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7313</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19361</t>
+          <t>9171</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>54</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>19243</t>
+          <t>9203</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>13322</t>
+          <t>6884</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>27682</t>
+          <t>12429</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>986</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>301095</t>
+          <t>167125</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>294936</t>
+          <t>165567</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>304429</t>
+          <t>168164</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>304058</t>
+          <t>175581</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>296602</t>
+          <t>173019</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>308650</t>
+          <t>177589</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>605153</t>
+          <t>342706</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>596714</t>
+          <t>339480</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>611074</t>
+          <t>345025</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>98,04%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>736</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8053</t>
+          <t>3073</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4541</t>
+          <t>3146</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9747</t>
+          <t>4926</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>7942</t>
+          <t>4723</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>4245</t>
+          <t>3172</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>13811</t>
+          <t>6840</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>146885</t>
+          <t>72874</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>142232</t>
+          <t>71378</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>149026</t>
+          <t>73715</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>727</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>150527</t>
+          <t>122270</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>145321</t>
+          <t>120490</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>153132</t>
+          <t>123513</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>297412</t>
+          <t>195144</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>291543</t>
+          <t>193027</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>301109</t>
+          <t>196695</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,41%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>979</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>259</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2388</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>4741</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>3245</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4411</t>
+          <t>7076</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4445</t>
+          <t>8100</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>54624</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>53215</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>55344</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>669</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9970</t>
+          <t>117860</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7023</t>
+          <t>115525</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11234</t>
+          <t>119356</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>87,2%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>61,42%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>933</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>19318</t>
+          <t>172484</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>16337</t>
+          <t>170104</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>20582</t>
+          <t>174546</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>78,61%</t>
+          <t>95,45%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>97,95%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>30134</t>
+          <t>14065</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22526</t>
+          <t>11271</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>39495</t>
+          <t>17682</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>125</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33960</t>
+          <t>23514</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>26100</t>
+          <t>19610</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>45104</t>
+          <t>28635</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>207</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>64095</t>
+          <t>37578</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>52828</t>
+          <t>32715</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>77027</t>
+          <t>43415</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1110097</t>
+          <t>692818</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1100736</t>
+          <t>689201</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1117705</t>
+          <t>695612</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>4271</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1039985</t>
+          <t>759545</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1028841</t>
+          <t>754424</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1047845</t>
+          <t>763449</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3808</t>
+          <t>8182</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2150081</t>
+          <t>1452363</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2137149</t>
+          <t>1446526</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2161348</t>
+          <t>1457226</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>97,8%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
